--- a/InterviewTest/output/230447/230447_failed.xlsx
+++ b/InterviewTest/output/230447/230447_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230447\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896A081F-F3F9-4E54-9912-16AD1714C381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA2727-65CF-4DA7-8C13-D253A9A9929C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230447/230447_failed.xlsx
+++ b/InterviewTest/output/230447/230447_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230447\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230447\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA2727-65CF-4DA7-8C13-D253A9A9929C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E883231E-2EC4-4F0E-A3C1-650DDAA0F1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="32310" yWindow="2925" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>39694</v>
+        <v>39516</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">

--- a/InterviewTest/output/230447/230447_failed.xlsx
+++ b/InterviewTest/output/230447/230447_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230447\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230447\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E883231E-2EC4-4F0E-A3C1-650DDAA0F1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB84389B-5CDE-4914-9040-CD27CB556A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="2925" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
